--- a/data/erp/test_anomaly.xlsx
+++ b/data/erp/test_anomaly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repositories\watex\data\erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA0874B-CDDD-4155-9BDF-9303D86A2219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B022F29-D5B5-45F3-B3EF-FE8289AE7971}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="6375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>pk</t>
   </si>
@@ -32,18 +32,6 @@
   </si>
   <si>
     <t>Rho</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>CB2P</t>
   </si>
 </sst>
 </file>
@@ -744,7 +732,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>93</c:v>
@@ -753,7 +741,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93</c:v>
@@ -765,7 +753,7 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>163</c:v>
@@ -1545,16 +1533,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1879,15 +1867,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1900,14 +1888,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1918,19 +1900,11 @@
         <v>1093010</v>
       </c>
       <c r="D2" s="1">
-        <v>93</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1944,7 +1918,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1958,7 +1932,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -1969,10 +1943,10 @@
         <v>1093033</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40</v>
       </c>
@@ -1988,7 +1962,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -2002,7 +1976,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -2016,7 +1990,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -2027,10 +2001,10 @@
         <v>1093063</v>
       </c>
       <c r="D9">
-        <v>130</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>80</v>
       </c>
@@ -2043,11 +2017,9 @@
       <c r="D10" s="1">
         <v>163</v>
       </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -2061,7 +2033,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -2075,7 +2047,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
@@ -2089,7 +2061,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
@@ -2103,7 +2075,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130</v>
       </c>
@@ -2117,7 +2089,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>

--- a/data/erp/test_anomaly.xlsx
+++ b/data/erp/test_anomaly.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repositories\watex\data\erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B022F29-D5B5-45F3-B3EF-FE8289AE7971}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F55880-4F66-4A56-9F71-E12207371BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="6375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="1695" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="l11_gbalo" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>pk</t>
   </si>
@@ -32,6 +35,27 @@
   </si>
   <si>
     <t>Rho</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>stations</t>
+  </si>
+  <si>
+    <t>resapprho</t>
+  </si>
+  <si>
+    <t>NORTH</t>
   </si>
 </sst>
 </file>
@@ -521,10 +545,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1869,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,4 +2144,1141 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFD1192-47C7-418E-898D-F20C7C55C910}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>790284</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1093124</v>
+      </c>
+      <c r="D2" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>790281</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1093118</v>
+      </c>
+      <c r="D3" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>790277</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1093110</v>
+      </c>
+      <c r="D4" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <v>790270</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1093104</v>
+      </c>
+      <c r="D5" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5">
+        <v>790265</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1093097</v>
+      </c>
+      <c r="D6" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4">
+        <v>790260</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1093092</v>
+      </c>
+      <c r="D7" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4">
+        <v>790254</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1093086</v>
+      </c>
+      <c r="D8" s="4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>70</v>
+      </c>
+      <c r="B9" s="4">
+        <v>790248</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1093079</v>
+      </c>
+      <c r="D9" s="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5">
+        <v>790243</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1093073</v>
+      </c>
+      <c r="D10" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>90</v>
+      </c>
+      <c r="B11" s="4">
+        <v>790237</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1093067</v>
+      </c>
+      <c r="D11" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>100</v>
+      </c>
+      <c r="B12" s="4">
+        <v>790231</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1093061</v>
+      </c>
+      <c r="D12" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>110</v>
+      </c>
+      <c r="B13" s="4">
+        <v>790224</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1093054</v>
+      </c>
+      <c r="D13" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>120</v>
+      </c>
+      <c r="B14" s="4">
+        <v>790218</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1093049</v>
+      </c>
+      <c r="D14" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>130</v>
+      </c>
+      <c r="B15" s="4">
+        <v>790211</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1093043</v>
+      </c>
+      <c r="D15" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>140</v>
+      </c>
+      <c r="B16" s="4">
+        <v>790206</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1093037</v>
+      </c>
+      <c r="D16" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>150</v>
+      </c>
+      <c r="B17" s="4">
+        <v>790200</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1093031</v>
+      </c>
+      <c r="D17" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>160</v>
+      </c>
+      <c r="B18" s="4">
+        <v>790194</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1093027</v>
+      </c>
+      <c r="D18" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>170</v>
+      </c>
+      <c r="B19" s="5">
+        <v>790187</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1093022</v>
+      </c>
+      <c r="D19" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>180</v>
+      </c>
+      <c r="B20" s="4">
+        <v>790181</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1093016</v>
+      </c>
+      <c r="D20" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>190</v>
+      </c>
+      <c r="B21" s="4">
+        <v>790175</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1093011</v>
+      </c>
+      <c r="D21" s="4">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0DD080-9D7D-47F2-8640-619630CB0BD4}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>790752</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1092750</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>790747</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1092758</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>790743</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1092763</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6">
+        <v>790738</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1092770</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6">
+        <v>790733</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1092776.5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>50</v>
+      </c>
+      <c r="B7" s="6">
+        <v>790729</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1092783</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>60</v>
+      </c>
+      <c r="B8" s="6">
+        <v>790724</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1092789.5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>70</v>
+      </c>
+      <c r="B9" s="6">
+        <v>790720</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1092796</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>80</v>
+      </c>
+      <c r="B10" s="6">
+        <v>790715</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1092802.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>90</v>
+      </c>
+      <c r="B11" s="6">
+        <v>790711</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1092809</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1591</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3544CEB4-FEBC-42C0-AB5A-2ED179402181}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>790752</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>1101</v>
+      </c>
+      <c r="D2">
+        <v>1092750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>790747</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>1147</v>
+      </c>
+      <c r="D3">
+        <v>1092758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>790743</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>1345</v>
+      </c>
+      <c r="D4">
+        <v>1092763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>790738</v>
+      </c>
+      <c r="B5">
+        <v>130</v>
+      </c>
+      <c r="C5">
+        <v>1369</v>
+      </c>
+      <c r="D5">
+        <v>1092770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>790733</v>
+      </c>
+      <c r="B6">
+        <v>160</v>
+      </c>
+      <c r="C6">
+        <v>1406</v>
+      </c>
+      <c r="D6">
+        <v>1092776.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>790729</v>
+      </c>
+      <c r="B7">
+        <v>190</v>
+      </c>
+      <c r="C7">
+        <v>1543</v>
+      </c>
+      <c r="D7">
+        <v>1092783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>790724</v>
+      </c>
+      <c r="B8">
+        <v>220</v>
+      </c>
+      <c r="C8">
+        <v>1480</v>
+      </c>
+      <c r="D8">
+        <v>1092789.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>790720</v>
+      </c>
+      <c r="B9">
+        <v>250</v>
+      </c>
+      <c r="C9">
+        <v>1517</v>
+      </c>
+      <c r="D9">
+        <v>1092796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>790715</v>
+      </c>
+      <c r="B10">
+        <v>280</v>
+      </c>
+      <c r="C10">
+        <v>1754</v>
+      </c>
+      <c r="D10">
+        <v>1092802.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>790711</v>
+      </c>
+      <c r="B11">
+        <v>310</v>
+      </c>
+      <c r="C11">
+        <v>1591</v>
+      </c>
+      <c r="D11">
+        <v>1092809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>790284</v>
+      </c>
+      <c r="B12">
+        <v>340</v>
+      </c>
+      <c r="C12">
+        <v>1260</v>
+      </c>
+      <c r="D12">
+        <v>1093124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>790281</v>
+      </c>
+      <c r="B13">
+        <v>370</v>
+      </c>
+      <c r="C13">
+        <v>1200</v>
+      </c>
+      <c r="D13">
+        <v>1093118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>790277</v>
+      </c>
+      <c r="B14">
+        <v>400</v>
+      </c>
+      <c r="C14">
+        <v>1160</v>
+      </c>
+      <c r="D14">
+        <v>1093110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>790270</v>
+      </c>
+      <c r="B15">
+        <v>430</v>
+      </c>
+      <c r="C15">
+        <v>1280</v>
+      </c>
+      <c r="D15">
+        <v>1093104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>790265</v>
+      </c>
+      <c r="B16">
+        <v>460</v>
+      </c>
+      <c r="C16">
+        <v>1100</v>
+      </c>
+      <c r="D16">
+        <v>1093097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>790260</v>
+      </c>
+      <c r="B17">
+        <v>490</v>
+      </c>
+      <c r="C17">
+        <v>1410</v>
+      </c>
+      <c r="D17">
+        <v>1093092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>790254</v>
+      </c>
+      <c r="B18">
+        <v>520</v>
+      </c>
+      <c r="C18">
+        <v>1680</v>
+      </c>
+      <c r="D18">
+        <v>1093086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>790248</v>
+      </c>
+      <c r="B19">
+        <v>550</v>
+      </c>
+      <c r="C19">
+        <v>1580</v>
+      </c>
+      <c r="D19">
+        <v>1093079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>790243</v>
+      </c>
+      <c r="B20">
+        <v>580</v>
+      </c>
+      <c r="C20">
+        <v>950</v>
+      </c>
+      <c r="D20">
+        <v>1093073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>790237</v>
+      </c>
+      <c r="B21">
+        <v>610</v>
+      </c>
+      <c r="C21">
+        <v>1750</v>
+      </c>
+      <c r="D21">
+        <v>1093067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>790231</v>
+      </c>
+      <c r="B22">
+        <v>640</v>
+      </c>
+      <c r="C22">
+        <v>1320</v>
+      </c>
+      <c r="D22">
+        <v>1093061</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>790224</v>
+      </c>
+      <c r="B23">
+        <v>670</v>
+      </c>
+      <c r="C23">
+        <v>1370</v>
+      </c>
+      <c r="D23">
+        <v>1093054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>790218</v>
+      </c>
+      <c r="B24">
+        <v>700</v>
+      </c>
+      <c r="C24">
+        <v>1390</v>
+      </c>
+      <c r="D24">
+        <v>1093049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>790211</v>
+      </c>
+      <c r="B25">
+        <v>730</v>
+      </c>
+      <c r="C25">
+        <v>1700</v>
+      </c>
+      <c r="D25">
+        <v>1093043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>790206</v>
+      </c>
+      <c r="B26">
+        <v>760</v>
+      </c>
+      <c r="C26">
+        <v>1230</v>
+      </c>
+      <c r="D26">
+        <v>1093037</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>790200</v>
+      </c>
+      <c r="B27">
+        <v>790</v>
+      </c>
+      <c r="C27">
+        <v>1480</v>
+      </c>
+      <c r="D27">
+        <v>1093031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>790194</v>
+      </c>
+      <c r="B28">
+        <v>820</v>
+      </c>
+      <c r="C28">
+        <v>1400</v>
+      </c>
+      <c r="D28">
+        <v>1093027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>790187</v>
+      </c>
+      <c r="B29">
+        <v>850</v>
+      </c>
+      <c r="C29">
+        <v>800</v>
+      </c>
+      <c r="D29">
+        <v>1093022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>790181</v>
+      </c>
+      <c r="B30">
+        <v>880</v>
+      </c>
+      <c r="C30">
+        <v>1660</v>
+      </c>
+      <c r="D30">
+        <v>1093016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>790175</v>
+      </c>
+      <c r="B31">
+        <v>910</v>
+      </c>
+      <c r="C31">
+        <v>1930</v>
+      </c>
+      <c r="D31">
+        <v>1093011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>790210</v>
+      </c>
+      <c r="B32">
+        <v>940</v>
+      </c>
+      <c r="C32">
+        <v>1680</v>
+      </c>
+      <c r="D32">
+        <v>1093010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>790214</v>
+      </c>
+      <c r="B33">
+        <v>970</v>
+      </c>
+      <c r="C33">
+        <v>1300</v>
+      </c>
+      <c r="D33">
+        <v>1093016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>790218</v>
+      </c>
+      <c r="B34">
+        <v>1000</v>
+      </c>
+      <c r="C34">
+        <v>930</v>
+      </c>
+      <c r="D34">
+        <v>1093026</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>790221</v>
+      </c>
+      <c r="B35">
+        <v>1030</v>
+      </c>
+      <c r="C35">
+        <v>1460</v>
+      </c>
+      <c r="D35">
+        <v>1093033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>790224</v>
+      </c>
+      <c r="B36">
+        <v>1060</v>
+      </c>
+      <c r="C36">
+        <v>1450</v>
+      </c>
+      <c r="D36">
+        <v>1093040</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>790228</v>
+      </c>
+      <c r="B37">
+        <v>1090</v>
+      </c>
+      <c r="C37">
+        <v>950</v>
+      </c>
+      <c r="D37">
+        <v>1093049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>790232</v>
+      </c>
+      <c r="B38">
+        <v>1120</v>
+      </c>
+      <c r="C38">
+        <v>500</v>
+      </c>
+      <c r="D38">
+        <v>1093057</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>790234</v>
+      </c>
+      <c r="B39">
+        <v>1150</v>
+      </c>
+      <c r="C39">
+        <v>1300</v>
+      </c>
+      <c r="D39">
+        <v>1093063</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>790237</v>
+      </c>
+      <c r="B40">
+        <v>1180</v>
+      </c>
+      <c r="C40">
+        <v>1630</v>
+      </c>
+      <c r="D40">
+        <v>1093071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>790240</v>
+      </c>
+      <c r="B41">
+        <v>1210</v>
+      </c>
+      <c r="C41">
+        <v>1400</v>
+      </c>
+      <c r="D41">
+        <v>1093078</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>790244</v>
+      </c>
+      <c r="B42">
+        <v>1240</v>
+      </c>
+      <c r="C42">
+        <v>1670</v>
+      </c>
+      <c r="D42">
+        <v>1093085</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>790246</v>
+      </c>
+      <c r="B43">
+        <v>1270</v>
+      </c>
+      <c r="C43">
+        <v>1540</v>
+      </c>
+      <c r="D43">
+        <v>1093094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>790250</v>
+      </c>
+      <c r="B44">
+        <v>1300</v>
+      </c>
+      <c r="C44">
+        <v>930</v>
+      </c>
+      <c r="D44">
+        <v>1093101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>790254</v>
+      </c>
+      <c r="B45">
+        <v>1330</v>
+      </c>
+      <c r="C45">
+        <v>1130</v>
+      </c>
+      <c r="D45">
+        <v>1093108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>790255</v>
+      </c>
+      <c r="B46">
+        <v>1360</v>
+      </c>
+      <c r="C46">
+        <v>1380</v>
+      </c>
+      <c r="D46">
+        <v>1093116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/erp/test_anomaly.xlsx
+++ b/data/erp/test_anomaly.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repositories\watex\data\erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F55880-4F66-4A56-9F71-E12207371BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36118155-4077-428B-B65E-7F763793F1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1695" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="16410" windowHeight="9690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="l11_gbalo" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="t0" sheetId="1" r:id="rId1"/>
+    <sheet name="t1" sheetId="2" r:id="rId2"/>
+    <sheet name="t2" sheetId="3" r:id="rId3"/>
+    <sheet name="t3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -674,7 +674,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>l11_gbalo!$D$1</c:f>
+              <c:f>t0!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -709,7 +709,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>l11_gbalo!$A$2:$A$16</c:f>
+              <c:f>t0!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -763,7 +763,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>l11_gbalo!$D$2:$D$16</c:f>
+              <c:f>t0!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2629,7 +2629,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
